--- a/doc/11.14.2013 Meeting-newTopine/Result.xlsx
+++ b/doc/11.14.2013 Meeting-newTopine/Result.xlsx
@@ -1361,21 +1361,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81572224"/>
-        <c:axId val="81573760"/>
+        <c:axId val="171107840"/>
+        <c:axId val="171109376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81572224"/>
+        <c:axId val="171107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TopK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81573760"/>
+        <c:crossAx val="171109376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,7 +1402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81573760"/>
+        <c:axId val="171109376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1391,11 +1410,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81572224"/>
+        <c:crossAx val="171107840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,11 +1967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81885056"/>
-        <c:axId val="81886592"/>
+        <c:axId val="163142272"/>
+        <c:axId val="163148160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81885056"/>
+        <c:axId val="163142272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81886592"/>
+        <c:crossAx val="163148160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81886592"/>
+        <c:axId val="163148160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -1963,7 +2001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81885056"/>
+        <c:crossAx val="163142272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2487,11 +2525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81935744"/>
-        <c:axId val="81945728"/>
+        <c:axId val="168173568"/>
+        <c:axId val="168175104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81935744"/>
+        <c:axId val="168173568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81945728"/>
+        <c:crossAx val="168175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81945728"/>
+        <c:axId val="168175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -2521,7 +2559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81935744"/>
+        <c:crossAx val="168173568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,6 +2611,1033 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73195969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Topline!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HWUbaseline_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Topline!$R$14:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62304479999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.74563789999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80675140000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82621659999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83156509999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83787809999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84243749999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84436650000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8486629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84901360000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline1_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$K$14:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.67440040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73331599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75260689999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76824820000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77711160000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78310740000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78362880000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78571429999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78571429999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78597499999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78597499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline2_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85322229999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline2_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$N$14:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78753910000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline3_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$Q$2:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95808859999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'new Topline'!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topline3_dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'new Topline'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'new Topline'!$Q$14:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94942649999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="170834176"/>
+        <c:axId val="170848640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170834176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TopK</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170848640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170848640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170834176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Joint Goal </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3322,11 +4387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83022592"/>
-        <c:axId val="83024128"/>
+        <c:axId val="165311616"/>
+        <c:axId val="165313152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83022592"/>
+        <c:axId val="165311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,7 +4401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83024128"/>
+        <c:crossAx val="165313152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3344,7 +4409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83024128"/>
+        <c:axId val="165313152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -3356,7 +4421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83022592"/>
+        <c:crossAx val="165311616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3377,7 +4442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3888,11 +4953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83048704"/>
-        <c:axId val="83058688"/>
+        <c:axId val="165345920"/>
+        <c:axId val="168235392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83048704"/>
+        <c:axId val="165345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +4967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83058688"/>
+        <c:crossAx val="168235392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3910,7 +4975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83058688"/>
+        <c:axId val="168235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -3922,7 +4987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83048704"/>
+        <c:crossAx val="165345920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3943,7 +5008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4444,11 +5509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83095552"/>
-        <c:axId val="83097088"/>
+        <c:axId val="168264064"/>
+        <c:axId val="168265600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83095552"/>
+        <c:axId val="168264064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4458,7 +5523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83097088"/>
+        <c:crossAx val="168265600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4466,7 +5531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83097088"/>
+        <c:axId val="168265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
@@ -4478,7 +5543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83095552"/>
+        <c:crossAx val="168264064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4503,16 +5568,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>421482</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88109</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4592,6 +5657,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590548</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6559,7 +7656,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
